--- a/L1_CoreJava 8 and Development Tools_Practice_Questions.xlsx
+++ b/L1_CoreJava 8 and Development Tools_Practice_Questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1669,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1686,7 +1686,9 @@
     <col min="9" max="9" width="22.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="13" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="45">
@@ -2715,9 +2717,7 @@
       <c r="J24" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="K24" s="6">
-        <v>3</v>
-      </c>
+      <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="5">
         <v>2</v>
